--- a/iné/body2020.xlsx
+++ b/iné/body2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\iné\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC29D-37A1-481F-9897-741A66F5CC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079903A4-023E-4A4E-8766-0D2731E18C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="7" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
   <sheets>
     <sheet name="LS FIIT" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="KALENDAR" sheetId="5" r:id="rId5"/>
     <sheet name="KALENDAR (2)" sheetId="9" r:id="rId6"/>
     <sheet name="SKUSKY LETO" sheetId="8" r:id="rId7"/>
+    <sheet name="SKUSKY ZIMA" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -500,6 +501,9 @@
   <si>
     <t>SEP</t>
   </si>
+  <si>
+    <t>JAN</t>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +563,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1052,11 +1062,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,6 +1313,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,10 +1413,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1634,17 +1758,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1713,17 +1837,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1768,17 +1892,17 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1821,17 +1945,17 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
       <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1912,17 +2036,17 @@
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
       <c r="L22" s="11" t="s">
         <v>13</v>
       </c>
@@ -1977,17 +2101,17 @@
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
       <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
@@ -2042,17 +2166,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2132,17 +2256,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -2165,17 +2289,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2216,17 +2340,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2239,14 +2363,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -2289,17 +2413,17 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2356,14 +2480,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2384,17 +2508,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="101"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2464,26 +2588,26 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2538,25 +2662,25 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="75" t="s">
+      <c r="K7" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="11" t="s">
         <v>13</v>
@@ -2602,14 +2726,14 @@
       <c r="F10" s="7"/>
       <c r="G10" s="22"/>
       <c r="I10" s="53"/>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
@@ -2628,14 +2752,14 @@
       <c r="R11" s="53"/>
     </row>
     <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
       <c r="H12"/>
       <c r="I12" s="11" t="s">
         <v>13</v>
@@ -2652,14 +2776,14 @@
       <c r="G13" s="21"/>
       <c r="H13"/>
       <c r="I13" s="32"/>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="11" t="s">
         <v>13</v>
@@ -2737,25 +2861,25 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2812,14 +2936,14 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2882,14 +3006,14 @@
       </c>
       <c r="G10" s="21"/>
       <c r="I10" s="32"/>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2936,14 +3060,14 @@
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2962,14 +3086,14 @@
         <v>57</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
       <c r="R14" s="11" t="s">
         <v>13</v>
       </c>
@@ -3018,14 +3142,14 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
       <c r="I17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3250,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="107" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="59">
@@ -3152,7 +3276,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="83"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="40">
         <v>22</v>
       </c>
@@ -3176,7 +3300,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="107" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="46">
@@ -3202,7 +3326,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="38">
         <v>8</v>
       </c>
@@ -3226,7 +3350,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="38">
         <v>15</v>
       </c>
@@ -3250,7 +3374,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="38">
         <v>22</v>
       </c>
@@ -3274,7 +3398,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="83"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="40">
         <v>29</v>
       </c>
@@ -3298,7 +3422,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="107" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="46">
@@ -3324,7 +3448,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="38">
         <v>12</v>
       </c>
@@ -3348,7 +3472,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="46">
         <v>19</v>
       </c>
@@ -3372,7 +3496,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="83"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="40">
         <v>26</v>
       </c>
@@ -3397,7 +3521,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="107" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="46">
@@ -3424,7 +3548,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="83"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="40">
         <v>10</v>
       </c>
@@ -3473,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F5E37-E916-4C8A-A4EE-276153DA562F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -3509,7 +3633,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="108" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="59">
@@ -3530,12 +3654,12 @@
       <c r="G4" s="65">
         <v>25</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="75">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="84"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="40">
         <v>27</v>
       </c>
@@ -3559,7 +3683,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="108" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="46">
@@ -3585,7 +3709,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="38">
         <v>11</v>
       </c>
@@ -3609,7 +3733,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="38">
         <v>18</v>
       </c>
@@ -3633,7 +3757,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="84"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="40">
         <v>25</v>
       </c>
@@ -3657,7 +3781,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="46">
         <v>1</v>
       </c>
@@ -3681,7 +3805,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="108" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="38">
@@ -3707,7 +3831,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="38">
         <v>15</v>
       </c>
@@ -3731,7 +3855,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="38">
         <v>22</v>
       </c>
@@ -3755,11 +3879,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="84"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="40">
         <v>29</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="76">
         <v>30</v>
       </c>
       <c r="D14" s="46">
@@ -3779,7 +3903,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="108" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="46">
@@ -3805,7 +3929,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="40">
         <v>13</v>
       </c>
@@ -3852,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4A735C-C27C-4ADD-8C87-F3DCAE761B1D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -3888,7 +4012,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="108" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="66">
@@ -3914,7 +4038,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -3938,7 +4062,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="38">
         <v>10</v>
       </c>
@@ -3962,7 +4086,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="38">
         <v>17</v>
       </c>
@@ -3986,7 +4110,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="84"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="38">
         <v>24</v>
       </c>
@@ -4010,7 +4134,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="108" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="73">
@@ -4036,7 +4160,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="74">
         <v>7</v>
       </c>
@@ -4060,7 +4184,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="38">
         <v>14</v>
       </c>
@@ -4084,7 +4208,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="84"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="38">
         <v>21</v>
       </c>
@@ -4108,7 +4232,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="68">
         <v>28</v>
       </c>
@@ -4132,7 +4256,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="59">
@@ -4159,7 +4283,7 @@
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="38">
         <v>12</v>
       </c>
@@ -4184,7 +4308,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="38">
         <v>19</v>
       </c>
@@ -4209,7 +4333,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="84"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="40">
         <v>26</v>
       </c>
@@ -4241,4 +4365,425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21F0E97-35A6-44C9-A250-FAD8736FB618}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" style="94" customWidth="1"/>
+    <col min="2" max="8" width="10.6328125" style="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="109">
+        <v>13</v>
+      </c>
+      <c r="C4" s="85">
+        <v>14</v>
+      </c>
+      <c r="D4" s="85">
+        <v>15</v>
+      </c>
+      <c r="E4" s="85">
+        <v>16</v>
+      </c>
+      <c r="F4" s="85">
+        <v>17</v>
+      </c>
+      <c r="G4" s="85">
+        <v>18</v>
+      </c>
+      <c r="H4" s="95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="88">
+        <v>20</v>
+      </c>
+      <c r="C5" s="110">
+        <v>21</v>
+      </c>
+      <c r="D5" s="86">
+        <v>22</v>
+      </c>
+      <c r="E5" s="86">
+        <v>23</v>
+      </c>
+      <c r="F5" s="86">
+        <v>24</v>
+      </c>
+      <c r="G5" s="90">
+        <v>25</v>
+      </c>
+      <c r="H5" s="87">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107"/>
+      <c r="B6" s="93">
+        <v>27</v>
+      </c>
+      <c r="C6" s="90">
+        <v>28</v>
+      </c>
+      <c r="D6" s="90">
+        <v>29</v>
+      </c>
+      <c r="E6" s="90">
+        <v>30</v>
+      </c>
+      <c r="F6" s="91">
+        <v>31</v>
+      </c>
+      <c r="G6" s="84">
+        <v>1</v>
+      </c>
+      <c r="H6" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="83">
+        <v>3</v>
+      </c>
+      <c r="C7" s="84">
+        <v>4</v>
+      </c>
+      <c r="D7" s="84">
+        <v>5</v>
+      </c>
+      <c r="E7" s="84">
+        <v>6</v>
+      </c>
+      <c r="F7" s="111">
+        <v>7</v>
+      </c>
+      <c r="G7" s="86">
+        <v>8</v>
+      </c>
+      <c r="H7" s="87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="107"/>
+      <c r="B8" s="88">
+        <v>10</v>
+      </c>
+      <c r="C8" s="86">
+        <v>11</v>
+      </c>
+      <c r="D8" s="86">
+        <v>12</v>
+      </c>
+      <c r="E8" s="110">
+        <v>13</v>
+      </c>
+      <c r="F8" s="86">
+        <v>14</v>
+      </c>
+      <c r="G8" s="86">
+        <v>15</v>
+      </c>
+      <c r="H8" s="87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="107"/>
+      <c r="B9" s="88">
+        <v>17</v>
+      </c>
+      <c r="C9" s="110">
+        <v>18</v>
+      </c>
+      <c r="D9" s="86">
+        <v>19</v>
+      </c>
+      <c r="E9" s="86">
+        <v>20</v>
+      </c>
+      <c r="F9" s="86">
+        <v>21</v>
+      </c>
+      <c r="G9" s="86">
+        <v>22</v>
+      </c>
+      <c r="H9" s="87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="107"/>
+      <c r="B10" s="88">
+        <v>24</v>
+      </c>
+      <c r="C10" s="89">
+        <v>25</v>
+      </c>
+      <c r="D10" s="90">
+        <v>26</v>
+      </c>
+      <c r="E10" s="90">
+        <v>27</v>
+      </c>
+      <c r="F10" s="90">
+        <v>28</v>
+      </c>
+      <c r="G10" s="90">
+        <v>29</v>
+      </c>
+      <c r="H10" s="91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="107"/>
+      <c r="B11" s="97">
+        <v>31</v>
+      </c>
+      <c r="C11" s="96">
+        <v>1</v>
+      </c>
+      <c r="D11" s="84">
+        <v>2</v>
+      </c>
+      <c r="E11" s="84">
+        <v>3</v>
+      </c>
+      <c r="F11" s="84">
+        <v>4</v>
+      </c>
+      <c r="G11" s="84">
+        <v>5</v>
+      </c>
+      <c r="H11" s="92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="81">
+        <v>7</v>
+      </c>
+      <c r="C12" s="86">
+        <v>8</v>
+      </c>
+      <c r="D12" s="86">
+        <v>9</v>
+      </c>
+      <c r="E12" s="86">
+        <v>10</v>
+      </c>
+      <c r="F12" s="86">
+        <v>11</v>
+      </c>
+      <c r="G12" s="86">
+        <v>12</v>
+      </c>
+      <c r="H12" s="87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="107"/>
+      <c r="B13" s="88">
+        <v>14</v>
+      </c>
+      <c r="C13" s="86">
+        <v>15</v>
+      </c>
+      <c r="D13" s="86">
+        <v>16</v>
+      </c>
+      <c r="E13" s="86">
+        <v>17</v>
+      </c>
+      <c r="F13" s="86">
+        <v>18</v>
+      </c>
+      <c r="G13" s="86">
+        <v>19</v>
+      </c>
+      <c r="H13" s="87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="107"/>
+      <c r="B14" s="88">
+        <v>21</v>
+      </c>
+      <c r="C14" s="90">
+        <v>22</v>
+      </c>
+      <c r="D14" s="90">
+        <v>23</v>
+      </c>
+      <c r="E14" s="90">
+        <v>24</v>
+      </c>
+      <c r="F14" s="90">
+        <v>25</v>
+      </c>
+      <c r="G14" s="90">
+        <v>26</v>
+      </c>
+      <c r="H14" s="91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="107"/>
+      <c r="B15" s="98">
+        <v>28</v>
+      </c>
+      <c r="C15" s="83">
+        <v>1</v>
+      </c>
+      <c r="D15" s="84">
+        <v>2</v>
+      </c>
+      <c r="E15" s="84">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84">
+        <v>4</v>
+      </c>
+      <c r="G15" s="84">
+        <v>5</v>
+      </c>
+      <c r="H15" s="92">
+        <v>6</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="83">
+        <v>7</v>
+      </c>
+      <c r="C16" s="86">
+        <v>8</v>
+      </c>
+      <c r="D16" s="86">
+        <v>9</v>
+      </c>
+      <c r="E16" s="86">
+        <v>10</v>
+      </c>
+      <c r="F16" s="86">
+        <v>11</v>
+      </c>
+      <c r="G16" s="86">
+        <v>12</v>
+      </c>
+      <c r="H16" s="87">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="107"/>
+      <c r="B17" s="88">
+        <v>14</v>
+      </c>
+      <c r="C17" s="86">
+        <v>15</v>
+      </c>
+      <c r="D17" s="86">
+        <v>16</v>
+      </c>
+      <c r="E17" s="86">
+        <v>17</v>
+      </c>
+      <c r="F17" s="86">
+        <v>18</v>
+      </c>
+      <c r="G17" s="86">
+        <v>19</v>
+      </c>
+      <c r="H17" s="87">
+        <v>20</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="107"/>
+      <c r="B18" s="93">
+        <v>21</v>
+      </c>
+      <c r="C18" s="90">
+        <v>22</v>
+      </c>
+      <c r="D18" s="90">
+        <v>23</v>
+      </c>
+      <c r="E18" s="90">
+        <v>24</v>
+      </c>
+      <c r="F18" s="90">
+        <v>25</v>
+      </c>
+      <c r="G18" s="90">
+        <v>26</v>
+      </c>
+      <c r="H18" s="91">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>